--- a/src/resource/Student Absences.xlsx
+++ b/src/resource/Student Absences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag Jain\Desktop\ZippSlip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag Jain\git\Zippslip Forms\zippslip\src\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Student Id</t>
   </si>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,33 +424,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>43034</v>
+        <v>43041</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43035</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43036</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="1"/>
@@ -586,12 +567,6 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/resource/Student Absences.xlsx
+++ b/src/resource/Student Absences.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>43041</v>
+        <v>43042</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>

--- a/src/resource/Student Absences.xlsx
+++ b/src/resource/Student Absences.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag Jain\git\Zippslip Forms\zippslip\src\resource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,7 +394,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>43042</v>
+        <v>43048</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>

--- a/src/resource/Student Absences.xlsx
+++ b/src/resource/Student Absences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>43048</v>
+        <v>43055</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>

--- a/src/resource/Student Absences.xlsx
+++ b/src/resource/Student Absences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>

--- a/src/resource/Student Absences.xlsx
+++ b/src/resource/Student Absences.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag Jain\git\zippslip\src\resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="10545"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Student Id</t>
   </si>
@@ -32,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>B12</t>
   </si>
 </sst>
 </file>
@@ -394,7 +401,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -416,18 +423,37 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>43056</v>
+        <v>43075</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43076</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43077</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="1"/>

--- a/src/resource/Student Absences.xlsx
+++ b/src/resource/Student Absences.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -38,14 +38,14 @@
     <t xml:space="preserve">Test </t>
   </si>
   <si>
-    <t>B12</t>
+    <t>S33532</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,10 +85,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +408,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -423,33 +430,33 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>43075</v>
+        <v>43160</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>43076</v>
+        <v>43161</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>43077</v>
+        <v>43162</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
